--- a/biology/Médecine/Pantoprazole/Pantoprazole.xlsx
+++ b/biology/Médecine/Pantoprazole/Pantoprazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pantoprazole est un médicament gastro-résistant qui réduit la quantité d'acide sécrétée par l'estomac[2]. Il est un inhibiteur de la pompe à protons[3] utilisé contre les ulcères gastriques, duodénaux, certaines œsophagites, les infections à Helicobacter pylori ; il est parfois associé à certains anti-inflammatoires pour pallier certains effets secondaires. Il peut provoquer des nausées et une augmentation des transaminases.
+Le pantoprazole est un médicament gastro-résistant qui réduit la quantité d'acide sécrétée par l'estomac. Il est un inhibiteur de la pompe à protons utilisé contre les ulcères gastriques, duodénaux, certaines œsophagites, les infections à Helicobacter pylori ; il est parfois associé à certains anti-inflammatoires pour pallier certains effets secondaires. Il peut provoquer des nausées et une augmentation des transaminases.
 Il est commercialisé, entre autres, par les laboratoires : Altana sous le nom d'« Eupantol », Sanofi Aventis sous le nom d'« Inipomp », Nycomed sous le nom de « Pantoloc », et aussi sous le nom de « Pantomed ».
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La molécule de pantoprazole porte le groupe fonctionnel sulfoxyde, c'est donc un composé organo-sulfuré. Son atome de soufre est asymétrique rendant la molécule chirale qui se présente donc sous forme de deux énantiomères.
 </t>
@@ -544,7 +558,9 @@
           <t>Effets indésirables possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agranulocytose
 Thrombopénie
